--- a/Data/t11.4.xlsx
+++ b/Data/t11.4.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,65 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wagner Nobrega\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E094B32D-E32C-4150-BC55-2D70C6AEC10A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61483141-27AC-40F6-A96E-9C2C3796DBCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="t11.4" sheetId="3" r:id="rId1"/>
+    <sheet name="t11.4" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>4° Trim 2010</t>
-  </si>
-  <si>
-    <t>4° Trim 2011</t>
-  </si>
-  <si>
-    <t>4° Trim 2012</t>
-  </si>
-  <si>
-    <t>4° Trim 2013</t>
-  </si>
-  <si>
-    <t>4° Trim 2014</t>
-  </si>
-  <si>
-    <t>4° Trim 2015</t>
-  </si>
-  <si>
-    <t>4° Trim 2016</t>
-  </si>
-  <si>
-    <t>4° Trim 2017</t>
-  </si>
-  <si>
-    <t>4° Trim 2018</t>
-  </si>
-  <si>
-    <t>4° Trim 2019</t>
-  </si>
-  <si>
-    <t>4° Trim 2020</t>
-  </si>
-  <si>
-    <t>4° Trim 2021</t>
-  </si>
-  <si>
-    <t>4° Trim 2022</t>
-  </si>
-  <si>
-    <t>2° Trim 2023</t>
-  </si>
-  <si>
     <t>Município de Aracaju</t>
   </si>
   <si>
@@ -77,15 +32,57 @@
   </si>
   <si>
     <t>Municípios do  Estado de Sergipe, exceto a capital</t>
+  </si>
+  <si>
+    <t>Instituição</t>
+  </si>
+  <si>
+    <t>2010 4° trim</t>
+  </si>
+  <si>
+    <t>2011 4° trim</t>
+  </si>
+  <si>
+    <t>2012 4° trim</t>
+  </si>
+  <si>
+    <t>2013 4° trim</t>
+  </si>
+  <si>
+    <t>2014 4° trim</t>
+  </si>
+  <si>
+    <t>2015 4° trim</t>
+  </si>
+  <si>
+    <t>2016 4° trim</t>
+  </si>
+  <si>
+    <t>2017 4° trim</t>
+  </si>
+  <si>
+    <t>2018 4° trim</t>
+  </si>
+  <si>
+    <t>2019 4° trim</t>
+  </si>
+  <si>
+    <t>2020 4° trim</t>
+  </si>
+  <si>
+    <t>2021 4° trim</t>
+  </si>
+  <si>
+    <t>2022 4° trim</t>
+  </si>
+  <si>
+    <t>2023 2° trim</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -519,9 +516,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -564,54 +560,52 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="43">
-    <cellStyle name="20% - Ênfase1" xfId="20" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase2" xfId="24" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase3" xfId="28" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase4" xfId="32" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase5" xfId="36" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase6" xfId="40" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase1" xfId="21" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase2" xfId="25" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase3" xfId="29" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase4" xfId="33" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase5" xfId="37" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase6" xfId="41" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase1" xfId="22" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase2" xfId="26" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase3" xfId="30" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase4" xfId="34" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase5" xfId="38" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase6" xfId="42" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bom" xfId="7" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="12" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Célula de Verificação" xfId="14" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Célula Vinculada" xfId="13" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Ênfase1" xfId="19" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Ênfase2" xfId="23" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Ênfase3" xfId="27" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Ênfase4" xfId="31" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Ênfase5" xfId="35" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Ênfase6" xfId="39" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="10" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Neutro" xfId="9" builtinId="28" customBuiltin="1"/>
+  <cellStyles count="42">
+    <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bom" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Célula de Verificação" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Célula Vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Ênfase1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Ênfase2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Ênfase3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Ênfase4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Nota" xfId="16" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Ruim" xfId="8" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Saída" xfId="11" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de Aviso" xfId="15" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto Explicativo" xfId="17" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="2" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 1" xfId="3" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="4" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="5" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Título 4" xfId="6" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
+    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Ruim" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -922,272 +916,247 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7131F0B3-9BA8-4663-B756-78E846627B79}">
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="N1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="O1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>3046.74025029022</v>
       </c>
-      <c r="C2" s="1">
-        <v>3216.0580107575706</v>
-      </c>
-      <c r="D2" s="1">
-        <v>22.860502551714887</v>
-      </c>
-      <c r="E2" s="1">
-        <v>-192.19910212804595</v>
+      <c r="C2">
+        <v>3758.8068820088574</v>
+      </c>
+      <c r="D2">
+        <v>4770.4443574668448</v>
+      </c>
+      <c r="E2">
+        <v>4520.2735552590975</v>
+      </c>
+      <c r="F2">
+        <v>4794.2138581133377</v>
+      </c>
+      <c r="G2">
+        <v>5949.2314147917878</v>
+      </c>
+      <c r="H2">
+        <v>7319.4882358607174</v>
+      </c>
+      <c r="I2">
+        <v>6491.1910614547878</v>
+      </c>
+      <c r="J2">
+        <v>6910.4908580542369</v>
+      </c>
+      <c r="K2">
+        <v>4358.394458249144</v>
+      </c>
+      <c r="L2">
+        <v>6189.0600509118631</v>
+      </c>
+      <c r="M2">
+        <v>5935.5110560551884</v>
+      </c>
+      <c r="N2">
+        <v>6082.7829314235669</v>
+      </c>
+      <c r="O2">
+        <v>6064.42</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>3758.8068820088574</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B3">
+        <v>3216.0580107575706</v>
+      </c>
+      <c r="C3">
         <v>3845.7413857738452</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
+        <v>4694.0921051170617</v>
+      </c>
+      <c r="E3">
+        <v>4521.6176279489137</v>
+      </c>
+      <c r="F3">
+        <v>4593.0140956831065</v>
+      </c>
+      <c r="G3">
+        <v>5724.1386613460027</v>
+      </c>
+      <c r="H3">
+        <v>7218.4810162908125</v>
+      </c>
+      <c r="I3">
+        <v>6167.4090620080315</v>
+      </c>
+      <c r="J3">
+        <v>6754.9016947972932</v>
+      </c>
+      <c r="K3">
+        <v>4488.9458769794674</v>
+      </c>
+      <c r="L3">
+        <v>6229.5305244587353</v>
+      </c>
+      <c r="M3">
+        <v>5791.8660145195117</v>
+      </c>
+      <c r="N3">
+        <v>5695.6388566578471</v>
+      </c>
+      <c r="O3">
+        <v>5434.68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>22.860502551714887</v>
+      </c>
+      <c r="C4">
         <v>12.522638399638053</v>
       </c>
-      <c r="E3" s="1">
+      <c r="D4">
+        <v>73.505219211316756</v>
+      </c>
+      <c r="E4">
+        <v>4.0322180694503071</v>
+      </c>
+      <c r="F4">
+        <v>170.06424273250818</v>
+      </c>
+      <c r="G4">
+        <v>225.41884593727829</v>
+      </c>
+      <c r="H4">
+        <v>153.27493445986988</v>
+      </c>
+      <c r="I4">
+        <v>323.34852007338617</v>
+      </c>
+      <c r="J4">
+        <v>232.75700102536771</v>
+      </c>
+      <c r="K4">
+        <v>-42.36130031483485</v>
+      </c>
+      <c r="L4">
+        <v>125.37582630620132</v>
+      </c>
+      <c r="M4">
+        <v>137.71424247227139</v>
+      </c>
+      <c r="N4">
+        <v>262.09429603233815</v>
+      </c>
+      <c r="O4">
+        <v>338.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>-192.19910212804595</v>
+      </c>
+      <c r="C5">
         <v>-99.457142164625338</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>4770.4443574668448</v>
-      </c>
-      <c r="C4" s="1">
-        <v>4694.0921051170617</v>
-      </c>
-      <c r="D4" s="1">
-        <v>73.505219211316756</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="D5">
         <v>2.847033138466494</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>4520.2735552590975</v>
-      </c>
-      <c r="C5" s="1">
-        <v>4521.6176279489137</v>
-      </c>
-      <c r="D5" s="1">
-        <v>4.0322180694503071</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>-5.3762907592670759</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>4794.2138581133377</v>
-      </c>
-      <c r="C6" s="1">
-        <v>4593.0140956831065</v>
-      </c>
-      <c r="D6" s="1">
-        <v>170.06424273250818</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="F5">
         <v>31.135519697723595</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>5949.2314147917878</v>
-      </c>
-      <c r="C7" s="1">
-        <v>5724.1386613460027</v>
-      </c>
-      <c r="D7" s="1">
-        <v>225.41884593727829</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="G5">
         <v>-0.32609249149264352</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>7319.4882358607174</v>
-      </c>
-      <c r="C8" s="1">
-        <v>7218.4810162908125</v>
-      </c>
-      <c r="D8" s="1">
-        <v>153.27493445986988</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="H5">
         <v>-52.281660384865091</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>6491.1910614547878</v>
-      </c>
-      <c r="C9" s="1">
-        <v>6167.4090620080315</v>
-      </c>
-      <c r="D9" s="1">
-        <v>323.34852007338617</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="I5">
         <v>0.41993314295244966</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>6910.4908580542369</v>
-      </c>
-      <c r="C10" s="1">
-        <v>6754.9016947972932</v>
-      </c>
-      <c r="D10" s="1">
-        <v>232.75700102536771</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="J5">
         <v>-77.167837768423837</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>4358.394458249144</v>
-      </c>
-      <c r="C11" s="1">
-        <v>4488.9458769794674</v>
-      </c>
-      <c r="D11" s="1">
-        <v>-42.36130031483485</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="K5">
         <v>-88.17760030073778</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>6189.0600509118631</v>
-      </c>
-      <c r="C12" s="1">
-        <v>6229.5305244587353</v>
-      </c>
-      <c r="D12" s="1">
-        <v>125.37582630620132</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="L5">
         <v>-165.84629985307313</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>5935.5110560551884</v>
-      </c>
-      <c r="C13" s="1">
-        <v>5791.8660145195117</v>
-      </c>
-      <c r="D13" s="1">
-        <v>137.71424247227139</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="M5">
         <v>5.9416812635211524</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <v>6082.7829314235669</v>
-      </c>
-      <c r="C14" s="1">
-        <v>5695.6388566578471</v>
-      </c>
-      <c r="D14" s="1">
-        <v>262.09429603233815</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="N5">
         <v>125.03949165056403</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1">
-        <v>6064.42</v>
-      </c>
-      <c r="C15" s="1">
-        <v>5434.68</v>
-      </c>
-      <c r="D15" s="1">
-        <v>338.72</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="O5">
         <v>291.02</v>
       </c>
     </row>

--- a/Data/t11.4.xlsx
+++ b/Data/t11.4.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wagner Nobrega\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61483141-27AC-40F6-A96E-9C2C3796DBCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A807E75-2BCC-49A1-B1D4-ABE82AFE1BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="t11.4" sheetId="5" r:id="rId1"/>
+    <sheet name="t11.4" sheetId="6" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="21">
   <si>
     <t>Município de Aracaju</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>2023 2° trim</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Valor</t>
   </si>
 </sst>
 </file>
@@ -560,8 +566,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -916,247 +923,642 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7131F0B3-9BA8-4663-B756-78E846627B79}">
-  <dimension ref="A1:O5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC3EECC-A827-499E-A50E-3E7619F16D81}">
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:O5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1">
         <v>3046.74025029022</v>
       </c>
-      <c r="C2">
-        <v>3758.8068820088574</v>
-      </c>
-      <c r="D2">
-        <v>4770.4443574668448</v>
-      </c>
-      <c r="E2">
-        <v>4520.2735552590975</v>
-      </c>
-      <c r="F2">
-        <v>4794.2138581133377</v>
-      </c>
-      <c r="G2">
-        <v>5949.2314147917878</v>
-      </c>
-      <c r="H2">
-        <v>7319.4882358607174</v>
-      </c>
-      <c r="I2">
-        <v>6491.1910614547878</v>
-      </c>
-      <c r="J2">
-        <v>6910.4908580542369</v>
-      </c>
-      <c r="K2">
-        <v>4358.394458249144</v>
-      </c>
-      <c r="L2">
-        <v>6189.0600509118631</v>
-      </c>
-      <c r="M2">
-        <v>5935.5110560551884</v>
-      </c>
-      <c r="N2">
-        <v>6082.7829314235669</v>
-      </c>
-      <c r="O2">
-        <v>6064.42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
         <v>3216.0580107575706</v>
       </c>
-      <c r="C3">
-        <v>3845.7413857738452</v>
-      </c>
-      <c r="D3">
-        <v>4694.0921051170617</v>
-      </c>
-      <c r="E3">
-        <v>4521.6176279489137</v>
-      </c>
-      <c r="F3">
-        <v>4593.0140956831065</v>
-      </c>
-      <c r="G3">
-        <v>5724.1386613460027</v>
-      </c>
-      <c r="H3">
-        <v>7218.4810162908125</v>
-      </c>
-      <c r="I3">
-        <v>6167.4090620080315</v>
-      </c>
-      <c r="J3">
-        <v>6754.9016947972932</v>
-      </c>
-      <c r="K3">
-        <v>4488.9458769794674</v>
-      </c>
-      <c r="L3">
-        <v>6229.5305244587353</v>
-      </c>
-      <c r="M3">
-        <v>5791.8660145195117</v>
-      </c>
-      <c r="N3">
-        <v>5695.6388566578471</v>
-      </c>
-      <c r="O3">
-        <v>5434.68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
         <v>22.860502551714887</v>
       </c>
-      <c r="C4">
-        <v>12.522638399638053</v>
-      </c>
-      <c r="D4">
-        <v>73.505219211316756</v>
-      </c>
-      <c r="E4">
-        <v>4.0322180694503071</v>
-      </c>
-      <c r="F4">
-        <v>170.06424273250818</v>
-      </c>
-      <c r="G4">
-        <v>225.41884593727829</v>
-      </c>
-      <c r="H4">
-        <v>153.27493445986988</v>
-      </c>
-      <c r="I4">
-        <v>323.34852007338617</v>
-      </c>
-      <c r="J4">
-        <v>232.75700102536771</v>
-      </c>
-      <c r="K4">
-        <v>-42.36130031483485</v>
-      </c>
-      <c r="L4">
-        <v>125.37582630620132</v>
-      </c>
-      <c r="M4">
-        <v>137.71424247227139</v>
-      </c>
-      <c r="N4">
-        <v>262.09429603233815</v>
-      </c>
-      <c r="O4">
-        <v>338.72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
         <v>-192.19910212804595</v>
       </c>
-      <c r="C5">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3758.8068820088574</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3845.7413857738452</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>12.522638399638053</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
         <v>-99.457142164625338</v>
       </c>
-      <c r="D5">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4770.4443574668448</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4694.0921051170617</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1">
+        <v>73.505219211316756</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1">
         <v>2.847033138466494</v>
       </c>
-      <c r="E5">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4520.2735552590975</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4521.6176279489137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4.0322180694503071</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1">
         <v>-5.3762907592670759</v>
       </c>
-      <c r="F5">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4794.2138581133377</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1">
+        <v>4593.0140956831065</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="1">
+        <v>170.06424273250818</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="1">
         <v>31.135519697723595</v>
       </c>
-      <c r="G5">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="1">
+        <v>5949.2314147917878</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1">
+        <v>5724.1386613460027</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="1">
+        <v>225.41884593727829</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="1">
         <v>-0.32609249149264352</v>
       </c>
-      <c r="H5">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="1">
+        <v>7319.4882358607174</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="1">
+        <v>7218.4810162908125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="1">
+        <v>153.27493445986988</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="1">
         <v>-52.281660384865091</v>
       </c>
-      <c r="I5">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="1">
+        <v>6491.1910614547878</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="1">
+        <v>6167.4090620080315</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="1">
+        <v>323.34852007338617</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="1">
         <v>0.41993314295244966</v>
       </c>
-      <c r="J5">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="1">
+        <v>6910.4908580542369</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="1">
+        <v>6754.9016947972932</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="1">
+        <v>232.75700102536771</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="1">
         <v>-77.167837768423837</v>
       </c>
-      <c r="K5">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="1">
+        <v>4358.394458249144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="1">
+        <v>4488.9458769794674</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="1">
+        <v>-42.36130031483485</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="1">
         <v>-88.17760030073778</v>
       </c>
-      <c r="L5">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="1">
+        <v>6189.0600509118631</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="1">
+        <v>6229.5305244587353</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="1">
+        <v>125.37582630620132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="1">
         <v>-165.84629985307313</v>
       </c>
-      <c r="M5">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="1">
+        <v>5935.5110560551884</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="1">
+        <v>5791.8660145195117</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="1">
+        <v>137.71424247227139</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="1">
         <v>5.9416812635211524</v>
       </c>
-      <c r="N5">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="1">
+        <v>6082.7829314235669</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="1">
+        <v>5695.6388566578471</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="1">
+        <v>262.09429603233815</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="1">
         <v>125.03949165056403</v>
       </c>
-      <c r="O5">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="1">
+        <v>6064.42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" s="1">
+        <v>5434.68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="1">
+        <v>338.72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" s="1">
         <v>291.02</v>
       </c>
     </row>

--- a/Data/t11.4.xlsx
+++ b/Data/t11.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wagner Nobrega\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A807E75-2BCC-49A1-B1D4-ABE82AFE1BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC4986E-9A4E-433A-A226-D7A9CFCDC9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="7">
   <si>
     <t>Município de Aracaju</t>
   </si>
@@ -35,48 +35,6 @@
   </si>
   <si>
     <t>Instituição</t>
-  </si>
-  <si>
-    <t>2010 4° trim</t>
-  </si>
-  <si>
-    <t>2011 4° trim</t>
-  </si>
-  <si>
-    <t>2012 4° trim</t>
-  </si>
-  <si>
-    <t>2013 4° trim</t>
-  </si>
-  <si>
-    <t>2014 4° trim</t>
-  </si>
-  <si>
-    <t>2015 4° trim</t>
-  </si>
-  <si>
-    <t>2016 4° trim</t>
-  </si>
-  <si>
-    <t>2017 4° trim</t>
-  </si>
-  <si>
-    <t>2018 4° trim</t>
-  </si>
-  <si>
-    <t>2019 4° trim</t>
-  </si>
-  <si>
-    <t>2020 4° trim</t>
-  </si>
-  <si>
-    <t>2021 4° trim</t>
-  </si>
-  <si>
-    <t>2022 4° trim</t>
-  </si>
-  <si>
-    <t>2023 2° trim</t>
   </si>
   <si>
     <t>Data</t>
@@ -940,626 +898,626 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
+      <c r="B2">
+        <v>2010</v>
       </c>
       <c r="C2" s="1">
-        <v>3046.74025029022</v>
+        <v>3098.5809705903548</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
+      <c r="B3">
+        <v>2010</v>
       </c>
       <c r="C3" s="1">
-        <v>3216.0580107575706</v>
+        <v>3270.779696923239</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
+      <c r="B4">
+        <v>2010</v>
       </c>
       <c r="C4" s="1">
-        <v>22.860502551714887</v>
+        <v>23.24947726611369</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
+      <c r="B5">
+        <v>2010</v>
       </c>
       <c r="C5" s="1">
-        <v>-192.19910212804595</v>
+        <v>-195.46939728839249</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
+      <c r="B6">
+        <v>2011</v>
       </c>
       <c r="C6" s="1">
-        <v>3758.8068820088574</v>
+        <v>3822.763517699701</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
+      <c r="B7">
+        <v>2011</v>
       </c>
       <c r="C7" s="1">
-        <v>3845.7413857738452</v>
+        <v>3911.1772244567001</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
-      <c r="B8" t="s">
-        <v>6</v>
+      <c r="B8">
+        <v>2011</v>
       </c>
       <c r="C8" s="1">
-        <v>12.522638399638053</v>
+        <v>12.735712879693754</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
-      <c r="B9" t="s">
-        <v>6</v>
+      <c r="B9">
+        <v>2011</v>
       </c>
       <c r="C9" s="1">
-        <v>-99.457142164625338</v>
+        <v>-101.1494196366927</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
-      <c r="B10" t="s">
-        <v>7</v>
+      <c r="B10">
+        <v>2012</v>
       </c>
       <c r="C10" s="1">
-        <v>4770.4443574668448</v>
+        <v>4851.6141492202578</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
-      <c r="B11" t="s">
-        <v>7</v>
+      <c r="B11">
+        <v>2012</v>
       </c>
       <c r="C11" s="1">
-        <v>4694.0921051170617</v>
+        <v>4773.9627523969748</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
-      <c r="B12" t="s">
-        <v>7</v>
+      <c r="B12">
+        <v>2012</v>
       </c>
       <c r="C12" s="1">
-        <v>73.505219211316756</v>
+        <v>74.755921009532415</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
-      <c r="B13" t="s">
-        <v>7</v>
+      <c r="B13">
+        <v>2012</v>
       </c>
       <c r="C13" s="1">
-        <v>2.847033138466494</v>
+        <v>2.8954758137494951</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
-        <v>8</v>
+      <c r="B14">
+        <v>2013</v>
       </c>
       <c r="C14" s="1">
-        <v>4520.2735552590975</v>
+        <v>4597.186655099481</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
-      <c r="B15" t="s">
-        <v>8</v>
+      <c r="B15">
+        <v>2013</v>
       </c>
       <c r="C15" s="1">
-        <v>4521.6176279489137</v>
+        <v>4598.5535973779897</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
-      <c r="B16" t="s">
-        <v>8</v>
+      <c r="B16">
+        <v>2013</v>
       </c>
       <c r="C16" s="1">
-        <v>4.0322180694503071</v>
+        <v>4.1008268355266457</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
-      <c r="B17" t="s">
-        <v>8</v>
+      <c r="B17">
+        <v>2013</v>
       </c>
       <c r="C17" s="1">
-        <v>-5.3762907592670759</v>
+        <v>-5.4677691140355273</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1</v>
       </c>
-      <c r="B18" t="s">
-        <v>9</v>
+      <c r="B18">
+        <v>2014</v>
       </c>
       <c r="C18" s="1">
-        <v>4794.2138581133377</v>
+        <v>4875.7880913134968</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2</v>
       </c>
-      <c r="B19" t="s">
-        <v>9</v>
+      <c r="B19">
+        <v>2014</v>
       </c>
       <c r="C19" s="1">
-        <v>4593.0140956831065</v>
+        <v>4671.1648862029751</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
-      <c r="B20" t="s">
-        <v>9</v>
+      <c r="B20">
+        <v>2014</v>
       </c>
       <c r="C20" s="1">
-        <v>170.06424273250818</v>
+        <v>172.95791010034841</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
-      <c r="B21" t="s">
-        <v>9</v>
+      <c r="B21">
+        <v>2014</v>
       </c>
       <c r="C21" s="1">
-        <v>31.135519697723595</v>
+        <v>31.665295010172791</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1</v>
       </c>
-      <c r="B22" t="s">
-        <v>10</v>
+      <c r="B22">
+        <v>2015</v>
       </c>
       <c r="C22" s="1">
-        <v>5949.2314147917878</v>
+        <v>6050.4584366048948</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>2</v>
       </c>
-      <c r="B23" t="s">
-        <v>10</v>
+      <c r="B23">
+        <v>2015</v>
       </c>
       <c r="C23" s="1">
-        <v>5724.1386613460027</v>
+        <v>5821.5356978258142</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
-      <c r="B24" t="s">
-        <v>10</v>
+      <c r="B24">
+        <v>2015</v>
       </c>
       <c r="C24" s="1">
-        <v>225.41884593727829</v>
+        <v>229.25437978086754</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>3</v>
       </c>
-      <c r="B25" t="s">
-        <v>10</v>
+      <c r="B25">
+        <v>2015</v>
       </c>
       <c r="C25" s="1">
-        <v>-0.32609249149264352</v>
+        <v>-0.33164100178715711</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1</v>
       </c>
-      <c r="B26" t="s">
-        <v>11</v>
+      <c r="B26">
+        <v>2016</v>
       </c>
       <c r="C26" s="1">
-        <v>7319.4882358607174</v>
+        <v>7444.0303730971409</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>2</v>
       </c>
-      <c r="B27" t="s">
-        <v>11</v>
+      <c r="B27">
+        <v>2016</v>
       </c>
       <c r="C27" s="1">
-        <v>7218.4810162908125</v>
+        <v>7341.3045012668317</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
-      <c r="B28" t="s">
-        <v>11</v>
+      <c r="B28">
+        <v>2016</v>
       </c>
       <c r="C28" s="1">
-        <v>153.27493445986988</v>
+        <v>155.88292935067116</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>3</v>
       </c>
-      <c r="B29" t="s">
-        <v>11</v>
+      <c r="B29">
+        <v>2016</v>
       </c>
       <c r="C29" s="1">
-        <v>-52.281660384865091</v>
+        <v>-53.171240299851355</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1</v>
       </c>
-      <c r="B30" t="s">
-        <v>12</v>
+      <c r="B30">
+        <v>2017</v>
       </c>
       <c r="C30" s="1">
-        <v>6491.1910614547878</v>
+        <v>6601.6396040240334</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>2</v>
       </c>
-      <c r="B31" t="s">
-        <v>12</v>
+      <c r="B31">
+        <v>2017</v>
       </c>
       <c r="C31" s="1">
-        <v>6167.4090620080315</v>
+        <v>6272.3484076347613</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>0</v>
       </c>
-      <c r="B32" t="s">
-        <v>12</v>
+      <c r="B32">
+        <v>2017</v>
       </c>
       <c r="C32" s="1">
-        <v>323.34852007338617</v>
+        <v>328.85034130248181</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>3</v>
       </c>
-      <c r="B33" t="s">
-        <v>12</v>
+      <c r="B33">
+        <v>2017</v>
       </c>
       <c r="C33" s="1">
-        <v>0.41993314295244966</v>
+        <v>0.4270783653278985</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1</v>
       </c>
-      <c r="B34" t="s">
-        <v>13</v>
+      <c r="B34">
+        <v>2018</v>
       </c>
       <c r="C34" s="1">
-        <v>6910.4908580542369</v>
+        <v>7028.0738465203176</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>2</v>
       </c>
-      <c r="B35" t="s">
-        <v>13</v>
+      <c r="B35">
+        <v>2018</v>
       </c>
       <c r="C35" s="1">
-        <v>6754.9016947972932</v>
+        <v>6869.8373114392198</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>0</v>
       </c>
-      <c r="B36" t="s">
-        <v>13</v>
+      <c r="B36">
+        <v>2018</v>
       </c>
       <c r="C36" s="1">
-        <v>232.75700102536771</v>
+        <v>236.71739462534867</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>3</v>
       </c>
-      <c r="B37" t="s">
-        <v>13</v>
+      <c r="B37">
+        <v>2018</v>
       </c>
       <c r="C37" s="1">
-        <v>-77.167837768423837</v>
+        <v>-78.480859544250578</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1</v>
       </c>
-      <c r="B38" t="s">
-        <v>14</v>
+      <c r="B38">
+        <v>2019</v>
       </c>
       <c r="C38" s="1">
-        <v>4358.394458249144</v>
+        <v>4432.5531621446362</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>2</v>
       </c>
-      <c r="B39" t="s">
-        <v>14</v>
+      <c r="B39">
+        <v>2019</v>
       </c>
       <c r="C39" s="1">
-        <v>4488.9458769794674</v>
+        <v>4565.325931901697</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>0</v>
       </c>
-      <c r="B40" t="s">
-        <v>14</v>
+      <c r="B40">
+        <v>2019</v>
       </c>
       <c r="C40" s="1">
-        <v>-42.36130031483485</v>
+        <v>-43.082083887035388</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>3</v>
       </c>
-      <c r="B41" t="s">
-        <v>14</v>
+      <c r="B41">
+        <v>2019</v>
       </c>
       <c r="C41" s="1">
-        <v>-88.17760030073778</v>
+        <v>-89.67795475776515</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>1</v>
       </c>
-      <c r="B42" t="s">
-        <v>15</v>
+      <c r="B42">
+        <v>2020</v>
       </c>
       <c r="C42" s="1">
-        <v>6189.0600509118631</v>
+        <v>6294.3677912056082</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>2</v>
       </c>
-      <c r="B43" t="s">
-        <v>15</v>
+      <c r="B43">
+        <v>2020</v>
       </c>
       <c r="C43" s="1">
-        <v>6229.5305244587353</v>
+        <v>6335.5268756372961</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>0</v>
       </c>
-      <c r="B44" t="s">
-        <v>15</v>
+      <c r="B44">
+        <v>2020</v>
       </c>
       <c r="C44" s="1">
-        <v>125.37582630620132</v>
+        <v>127.50911388899378</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>3</v>
       </c>
-      <c r="B45" t="s">
-        <v>15</v>
+      <c r="B45">
+        <v>2020</v>
       </c>
       <c r="C45" s="1">
-        <v>-165.84629985307313</v>
+        <v>-168.66819832068174</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>1</v>
       </c>
-      <c r="B46" t="s">
-        <v>16</v>
+      <c r="B46">
+        <v>2021</v>
       </c>
       <c r="C46" s="1">
-        <v>5935.5110560551884</v>
+        <v>6036.5046240057254</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>2</v>
       </c>
-      <c r="B47" t="s">
-        <v>16</v>
+      <c r="B47">
+        <v>2021</v>
       </c>
       <c r="C47" s="1">
-        <v>5791.8660145195117</v>
+        <v>5890.4154415820813</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>0</v>
       </c>
-      <c r="B48" t="s">
-        <v>16</v>
+      <c r="B48">
+        <v>2021</v>
       </c>
       <c r="C48" s="1">
-        <v>137.71424247227139</v>
+        <v>140.05746996751657</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>3</v>
       </c>
-      <c r="B49" t="s">
-        <v>16</v>
+      <c r="B49">
+        <v>2021</v>
       </c>
       <c r="C49" s="1">
-        <v>5.9416812635211524</v>
+        <v>6.0427798184325594</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>1</v>
       </c>
-      <c r="B50" t="s">
-        <v>17</v>
+      <c r="B50">
+        <v>2022</v>
       </c>
       <c r="C50" s="1">
-        <v>6082.7829314235669</v>
+        <v>6186.2823513574858</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>2</v>
       </c>
-      <c r="B51" t="s">
-        <v>17</v>
+      <c r="B51">
+        <v>2022</v>
       </c>
       <c r="C51" s="1">
-        <v>5695.6388566578471</v>
+        <v>5792.5509648923617</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>0</v>
       </c>
-      <c r="B52" t="s">
-        <v>17</v>
+      <c r="B52">
+        <v>2022</v>
       </c>
       <c r="C52" s="1">
-        <v>262.09429603233815</v>
+        <v>266.5538678949473</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>3</v>
       </c>
-      <c r="B53" t="s">
-        <v>17</v>
+      <c r="B53">
+        <v>2022</v>
       </c>
       <c r="C53" s="1">
-        <v>125.03949165056403</v>
+        <v>127.16705645117689</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>1</v>
       </c>
-      <c r="B54" t="s">
-        <v>18</v>
+      <c r="B54">
+        <v>2023</v>
       </c>
       <c r="C54" s="1">
-        <v>6064.42</v>
+        <v>6470.48</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>2</v>
       </c>
-      <c r="B55" t="s">
-        <v>18</v>
+      <c r="B55">
+        <v>2023</v>
       </c>
       <c r="C55" s="1">
-        <v>5434.68</v>
+        <v>5831.48</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>0</v>
       </c>
-      <c r="B56" t="s">
-        <v>18</v>
+      <c r="B56">
+        <v>2023</v>
       </c>
       <c r="C56" s="1">
-        <v>338.72</v>
+        <v>551.28</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>3</v>
       </c>
-      <c r="B57" t="s">
-        <v>18</v>
+      <c r="B57">
+        <v>2023</v>
       </c>
       <c r="C57" s="1">
-        <v>291.02</v>
+        <v>87.72</v>
       </c>
     </row>
   </sheetData>
